--- a/Response of Concordance Test.xlsx
+++ b/Response of Concordance Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinay\Desktop\Lifelong Learning\University of Ben Gurion\Comparing AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4B1F7E-3AFB-460F-A833-B6E61CE2F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D110F28-23B9-4DF5-BB5D-B3A555409956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="11">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Copilot</t>
   </si>
 </sst>
 </file>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,10 +394,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -407,8 +413,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -421,8 +430,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -435,8 +447,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -449,8 +464,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -463,8 +481,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -477,8 +498,11 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -491,8 +515,11 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -505,8 +532,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -517,10 +547,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -533,8 +566,11 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -547,8 +583,11 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -559,10 +598,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -575,8 +617,11 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -589,8 +634,11 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -603,8 +651,11 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -617,8 +668,11 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -631,8 +685,11 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -645,8 +702,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -657,10 +717,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -673,8 +736,11 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -685,10 +751,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -701,8 +770,11 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -715,8 +787,11 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -729,8 +804,11 @@
       <c r="D25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -741,10 +819,13 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -757,8 +838,11 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -769,10 +853,13 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -785,8 +872,11 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -799,8 +889,11 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -813,8 +906,11 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -827,8 +923,11 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -841,8 +940,11 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -853,10 +955,13 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -869,8 +974,11 @@
       <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -883,8 +991,11 @@
       <c r="D36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -897,8 +1008,11 @@
       <c r="D37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -911,8 +1025,11 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -923,10 +1040,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -937,10 +1057,13 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -951,6 +1074,9 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
